--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_1_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1654901.755218264</v>
+        <v>1605840.607826223</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5301029.811029742</v>
+        <v>5301029.811029741</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2166967.111789207</v>
+        <v>2166967.111789206</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7930013.969481332</v>
+        <v>7930013.969481334</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>253.8998584422227</v>
       </c>
       <c r="D2" t="n">
-        <v>345.8958336801322</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>166.4741484043119</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.9263373332095</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>350.3966445510885</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>336.0406741793414</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -1074,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.8685554756021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,13 +1147,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>224.8970394882391</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>131.4047570187827</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1293,22 +1293,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>153.1074389900276</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1387,7 +1387,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1423,10 +1423,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U11" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>43.70861672689576</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1612,22 +1612,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>47.64512042712314</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>183.3657324984631</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>91.8634291666399</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1864,7 +1864,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>277.4167038402952</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>34.95332312845477</v>
+        <v>98.9457413571089</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2016,10 +2016,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>123.2715627317511</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>185.0783105344436</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128957</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2332,10 +2332,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>151.3223923134429</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>68.09295918562097</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>351.080144279057</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>29.06736062834964</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>198.5111442234514</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>209.3277174905208</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>334.0755358138493</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
@@ -3012,13 +3012,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>85.89360783247683</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>254.489886823085</v>
@@ -3097,7 +3097,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>174.4275996389298</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.7462229883149</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>180.6077930059077</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3274,10 +3274,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>321.6253710996518</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>194.3204012433884</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.73473549075464</v>
+        <v>3.089951396819556</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>265.7345771113586</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>31.42227043795236</v>
       </c>
       <c r="T38" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>72.1533939828054</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>347.4404954123231</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3900,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>55.69551283691951</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3979,13 +3979,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>182.9557283947299</v>
       </c>
       <c r="D44" t="n">
-        <v>368.1319780410717</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>219.9844192126098</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>262.2537570519889</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>29.48638076105891</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.6088695046626</v>
+        <v>1542.752026609714</v>
       </c>
       <c r="C2" t="n">
-        <v>509.4842788179327</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D2" t="n">
-        <v>160.0945478279002</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>149.794736385201</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4333,22 +4333,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.450954962253</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
         <v>2047.697635790537</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X2" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y2" t="n">
-        <v>1329.830049169152</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>52.35970185319792</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922355</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585607</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1214.985342995715</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>1043.891970557431</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>884.3973258803412</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>723.4865107486606</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>2088.254281480102</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>2088.254281480102</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1920.098576021201</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1641.028911530076</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="X4" t="n">
-        <v>1402.685049389759</v>
+        <v>264.9230021277934</v>
       </c>
       <c r="Y4" t="n">
-        <v>1402.685049389759</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1732.235951192497</v>
+        <v>812.257902069857</v>
       </c>
       <c r="C5" t="n">
-        <v>1726.151764546172</v>
+        <v>806.1737154235311</v>
       </c>
       <c r="D5" t="n">
-        <v>1372.215759949112</v>
+        <v>805.7501895569957</v>
       </c>
       <c r="E5" t="n">
-        <v>957.8755444660092</v>
+        <v>795.4503781142964</v>
       </c>
       <c r="F5" t="n">
-        <v>536.8451324196967</v>
+        <v>778.460370108388</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>295.9505570973564</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="M5" t="n">
-        <v>733.4074053521598</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N5" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O5" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1738.416726816583</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1738.416726816583</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>1738.416726816583</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="Y5" t="n">
-        <v>1738.416726816583</v>
+        <v>818.4386776939424</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L6" t="n">
-        <v>751.4208778585605</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="M6" t="n">
-        <v>1221.566882129794</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N6" t="n">
-        <v>1221.566882129794</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O6" t="n">
-        <v>1221.566882129794</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796119</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4682,16 +4682,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1201.255172149341</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C7" t="n">
-        <v>1201.255172149341</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D7" t="n">
-        <v>1201.255172149341</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E7" t="n">
-        <v>1040.344357017661</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>875.7132311282519</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>708.4628400537953</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>558.8553848592519</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>558.8553848592519</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>572.9379342644625</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>727.4902619867005</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>987.3873622667611</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1557.490201101505</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.050811427979</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>2088.254281480102</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>2088.254281480102</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1848.705542456804</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1848.705542456804</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1574.819797396326</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W7" t="n">
-        <v>1574.819797396326</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X7" t="n">
-        <v>1336.47593525601</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y7" t="n">
-        <v>1201.255172149341</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2231.056920380548</v>
+        <v>1963.145600346251</v>
       </c>
       <c r="C8" t="n">
-        <v>1820.932329693819</v>
+        <v>1553.021009659521</v>
       </c>
       <c r="D8" t="n">
-        <v>1416.468399786879</v>
+        <v>1148.557079752582</v>
       </c>
       <c r="E8" t="n">
-        <v>1002.128184303776</v>
+        <v>734.2168642694783</v>
       </c>
       <c r="F8" t="n">
-        <v>581.0977722574635</v>
+        <v>313.1864522231658</v>
       </c>
       <c r="G8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="H8" t="n">
-        <v>172.3694881502956</v>
+        <v>86.01772546736876</v>
       </c>
       <c r="I8" t="n">
         <v>86.01772546736876</v>
@@ -4816,16 +4816,16 @@
         <v>2367.272688848154</v>
       </c>
       <c r="N8" t="n">
-        <v>3087.542073342617</v>
+        <v>3120.453705486772</v>
       </c>
       <c r="O8" t="n">
-        <v>3731.172929759722</v>
+        <v>3764.084561903877</v>
       </c>
       <c r="P8" t="n">
-        <v>4260.329627678873</v>
+        <v>4293.241259823028</v>
       </c>
       <c r="Q8" t="n">
-        <v>4260.329627678873</v>
+        <v>4300.886273368438</v>
       </c>
       <c r="R8" t="n">
         <v>4300.886273368438</v>
@@ -4834,22 +4834,22 @@
         <v>4165.605198162539</v>
       </c>
       <c r="T8" t="n">
-        <v>4032.873120365789</v>
+        <v>4165.605198162539</v>
       </c>
       <c r="U8" t="n">
-        <v>3775.812628625299</v>
+        <v>3908.544706422049</v>
       </c>
       <c r="V8" t="n">
-        <v>3425.975073961779</v>
+        <v>3558.70715175853</v>
       </c>
       <c r="W8" t="n">
-        <v>3042.214773096948</v>
+        <v>3174.946850893698</v>
       </c>
       <c r="X8" t="n">
-        <v>3042.214773096948</v>
+        <v>2774.303453062651</v>
       </c>
       <c r="Y8" t="n">
-        <v>2641.278100045038</v>
+        <v>2373.366780010741</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>86.01772546736876</v>
       </c>
       <c r="J9" t="n">
-        <v>86.01772546736876</v>
+        <v>278.830583030002</v>
       </c>
       <c r="K9" t="n">
-        <v>86.01772546736876</v>
+        <v>734.6368392953007</v>
       </c>
       <c r="L9" t="n">
-        <v>86.01772546736876</v>
+        <v>1395.725011214589</v>
       </c>
       <c r="M9" t="n">
-        <v>928.9948061619355</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="N9" t="n">
-        <v>1802.652898273553</v>
+        <v>2132.506921317869</v>
       </c>
       <c r="O9" t="n">
         <v>2132.506921317869</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357.0177501408483</v>
+        <v>1175.351575768505</v>
       </c>
       <c r="C10" t="n">
-        <v>357.0177501408483</v>
+        <v>1004.258203330222</v>
       </c>
       <c r="D10" t="n">
-        <v>357.0177501408483</v>
+        <v>844.7635586531319</v>
       </c>
       <c r="E10" t="n">
-        <v>357.0177501408483</v>
+        <v>683.8527435214513</v>
       </c>
       <c r="F10" t="n">
-        <v>357.0177501408483</v>
+        <v>519.2216176320426</v>
       </c>
       <c r="G10" t="n">
-        <v>202.3637713630426</v>
+        <v>351.971226557586</v>
       </c>
       <c r="H10" t="n">
         <v>202.3637713630426</v>
@@ -4986,28 +4986,28 @@
         <v>1615.416622088219</v>
       </c>
       <c r="R10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="S10" t="n">
-        <v>1530.143903763618</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="T10" t="n">
-        <v>1290.59516474032</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="U10" t="n">
-        <v>1007.797017286445</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="V10" t="n">
-        <v>1007.797017286445</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="W10" t="n">
-        <v>1007.797017286445</v>
+        <v>1615.416622088219</v>
       </c>
       <c r="X10" t="n">
-        <v>769.453155146128</v>
+        <v>1587.786980773785</v>
       </c>
       <c r="Y10" t="n">
-        <v>544.7174565348927</v>
+        <v>1363.05128216255</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2549.191389976085</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C11" t="n">
-        <v>2139.066799289355</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D11" t="n">
-        <v>1734.602869382415</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E11" t="n">
-        <v>1320.262653899312</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F11" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G11" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
@@ -5041,10 +5041,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5071,22 +5071,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4526.90380932524</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U11" t="n">
-        <v>4494.590496051882</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V11" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W11" t="n">
-        <v>3760.992640523532</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X11" t="n">
-        <v>3360.349242692484</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y11" t="n">
-        <v>2959.412569640574</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851894</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.2436976906228</v>
+        <v>1059.477274823258</v>
       </c>
       <c r="C13" t="n">
-        <v>93.2436976906228</v>
+        <v>888.3839023849746</v>
       </c>
       <c r="D13" t="n">
-        <v>93.2436976906228</v>
+        <v>728.8892577078846</v>
       </c>
       <c r="E13" t="n">
-        <v>93.2436976906228</v>
+        <v>567.9784425762041</v>
       </c>
       <c r="F13" t="n">
-        <v>93.2436976906228</v>
+        <v>403.3473166867954</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
@@ -5226,25 +5226,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S13" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T13" t="n">
-        <v>1111.429368843485</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="U13" t="n">
-        <v>828.6312213896092</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="V13" t="n">
-        <v>554.7454763291312</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="W13" t="n">
-        <v>275.6758118380055</v>
+        <v>1297.821136963575</v>
       </c>
       <c r="X13" t="n">
-        <v>93.2436976906228</v>
+        <v>1059.477274823258</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.2436976906228</v>
+        <v>1059.477274823258</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1692.113136769081</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.262653899312</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E14" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F14" t="n">
-        <v>899.2322418529996</v>
+        <v>452.2785793327262</v>
       </c>
       <c r="G14" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H14" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5366,16 +5366,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M15" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N15" t="n">
-        <v>874.0699105066985</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.027001052593</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1182.57754799176</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="C16" t="n">
         <v>1011.484175553476</v>
@@ -5463,25 +5463,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="V16" t="n">
-        <v>1622.642594311473</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="W16" t="n">
-        <v>1622.642594311473</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.012952997039</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="Y16" t="n">
-        <v>1370.277254385804</v>
+        <v>1011.484175553476</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.394211974981</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5542,25 +5542,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4439.978400477999</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>242.9542576166784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>242.9542576166784</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1085.931338311245</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1085.931338311245</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.9327162829152</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="C19" t="n">
-        <v>694.626329284476</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D19" t="n">
-        <v>535.131684607386</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E19" t="n">
-        <v>374.2208694757054</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F19" t="n">
-        <v>209.5897435862967</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G19" t="n">
-        <v>209.5897435862967</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H19" t="n">
         <v>209.5897435862967</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="V19" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="W19" t="n">
-        <v>917.6324226769595</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="X19" t="n">
-        <v>917.6324226769595</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="Y19" t="n">
-        <v>917.6324226769595</v>
+        <v>1111.429368843485</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4537.668154499068</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4315.461670445927</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U20" t="n">
-        <v>4058.401178705436</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V20" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W20" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X20" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1670.858880348135</v>
       </c>
       <c r="P21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1182.57754799176</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C22" t="n">
-        <v>1011.484175553476</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D22" t="n">
-        <v>851.989530876386</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5946,16 +5946,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>1348.756849250995</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.642594311473</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="X22" t="n">
-        <v>1595.012952997039</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y22" t="n">
-        <v>1370.277254385804</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4405.12439279065</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6077,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1015.022989509699</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C25" t="n">
-        <v>843.9296170714154</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D25" t="n">
-        <v>843.9296170714154</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E25" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6171,28 +6171,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>1297.821136963575</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U25" t="n">
-        <v>1015.022989509699</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.022989509699</v>
+        <v>1065.958701797119</v>
       </c>
       <c r="W25" t="n">
-        <v>1015.022989509699</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="X25" t="n">
-        <v>1015.022989509699</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y25" t="n">
-        <v>1015.022989509699</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6268,10 +6268,10 @@
         <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>2959.412569640574</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6314,13 +6314,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6411,25 +6411,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T28" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U28" t="n">
-        <v>1182.57754799176</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V28" t="n">
-        <v>1182.57754799176</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W28" t="n">
-        <v>1182.57754799176</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.57754799176</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y28" t="n">
-        <v>1182.57754799176</v>
+        <v>122.6046680222891</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6493,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W29" t="n">
-        <v>3697.79927886809</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.2436976906228</v>
+        <v>706.2250570456695</v>
       </c>
       <c r="C31" t="n">
-        <v>93.2436976906228</v>
+        <v>535.131684607386</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>535.131684607386</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>374.2208694757054</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S31" t="n">
-        <v>1350.978107866783</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T31" t="n">
-        <v>1111.429368843485</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U31" t="n">
-        <v>828.6312213896092</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V31" t="n">
-        <v>554.7454763291312</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="W31" t="n">
-        <v>275.6758118380055</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="X31" t="n">
-        <v>93.2436976906228</v>
+        <v>980.6859834725187</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.2436976906228</v>
+        <v>893.9247634397138</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6730,22 +6730,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>212.9817385874103</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3132.785987910289</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="C34" t="n">
-        <v>3132.785987910289</v>
+        <v>844.2337844790193</v>
       </c>
       <c r="D34" t="n">
-        <v>3132.785987910289</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E34" t="n">
-        <v>3132.785987910289</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G34" t="n">
-        <v>3132.785987910289</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>3868.173511609275</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="V34" t="n">
-        <v>3594.287766548796</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="W34" t="n">
-        <v>3315.218102057671</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="X34" t="n">
-        <v>3132.785987910289</v>
+        <v>1254.571728532997</v>
       </c>
       <c r="Y34" t="n">
-        <v>3132.785987910289</v>
+        <v>1029.836029921762</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2459.725286714852</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C35" t="n">
-        <v>2049.600696028122</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D35" t="n">
-        <v>1645.136766121183</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U35" t="n">
-        <v>4405.12439279065</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V35" t="n">
-        <v>4055.286838127131</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W35" t="n">
-        <v>3671.526537262299</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X35" t="n">
-        <v>3270.883139431251</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y35" t="n">
-        <v>2869.946466379341</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>592.7987223006619</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>684.7391398019292</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1584.526699876367</v>
+        <v>1619.521431284383</v>
       </c>
       <c r="S37" t="n">
-        <v>1398.134931756277</v>
+        <v>1619.521431284383</v>
       </c>
       <c r="T37" t="n">
-        <v>1398.134931756277</v>
+        <v>1379.972692261085</v>
       </c>
       <c r="U37" t="n">
-        <v>1115.336784302402</v>
+        <v>1097.174544807209</v>
       </c>
       <c r="V37" t="n">
-        <v>1115.336784302402</v>
+        <v>1097.174544807209</v>
       </c>
       <c r="W37" t="n">
-        <v>836.267119811276</v>
+        <v>1097.174544807209</v>
       </c>
       <c r="X37" t="n">
-        <v>836.267119811276</v>
+        <v>1097.174544807209</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.5314212000407</v>
+        <v>872.4388461959736</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4630.445217422097</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M39" t="n">
-        <v>549.0499539559215</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N39" t="n">
-        <v>1085.931338311245</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>898.981111021629</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>727.8877385833455</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>568.3930939062554</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>407.4822787745749</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
         <v>93.2436976906228</v>
@@ -7359,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>1549.760378167225</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X40" t="n">
-        <v>1311.416516026909</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y40" t="n">
-        <v>1086.680817415673</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2151.931129920876</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1741.806539234146</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1337.342609327206</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>923.0023938441032</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>501.9719817977906</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="U41" t="n">
-        <v>4047.636833531609</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>2963.088982637275</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2562.152309585365</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>704.368908940975</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>704.368908940975</v>
       </c>
       <c r="M42" t="n">
-        <v>1597.308950304478</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N42" t="n">
-        <v>1597.308950304478</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P42" t="n">
         <v>2139.732893541123</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
         <v>93.2436976906228</v>
@@ -7599,22 +7599,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U43" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V43" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W43" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X43" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>308.996436142379</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V44" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003258</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.395580172211</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>93.2436976906228</v>
+        <v>850.6960310278942</v>
       </c>
       <c r="C46" t="n">
-        <v>93.2436976906228</v>
+        <v>679.6026585896107</v>
       </c>
       <c r="D46" t="n">
-        <v>93.2436976906228</v>
+        <v>520.1080139125206</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S46" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.093855288175</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.295707834299</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="V46" t="n">
-        <v>835.3929229333004</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="W46" t="n">
-        <v>556.3232584421747</v>
+        <v>1068.179960412907</v>
       </c>
       <c r="X46" t="n">
-        <v>317.9793963018581</v>
+        <v>1038.395737421939</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.2436976906228</v>
+        <v>1038.395737421939</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>62.07087134908654</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
         <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>532.4592375477436</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>535.1658287548267</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>228.7885022587807</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M6" t="n">
-        <v>532.4592375477438</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8464,7 +8464,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>820.4571235793086</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
         <v>743.321953824879</v>
@@ -8473,10 +8473,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>97.7560403036063</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>909.0562844399999</v>
+        <v>801.7884353578918</v>
       </c>
       <c r="N9" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>390.9373608629447</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,22 +8768,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8941,13 +8941,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P14" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9014,7 +9014,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>846.2776300172818</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9023,10 +9023,10 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>205.4824228069005</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>207.048570588712</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
@@ -9254,16 +9254,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9488,16 +9488,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>527.8697493391553</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9725,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9962,16 +9962,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>176.7732988419765</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>560.7155587704844</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>234.5959412371211</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10904,16 +10904,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>595.4978220354909</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
@@ -10922,7 +10922,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K41" t="n">
         <v>632.7318453389136</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>478.3635137823113</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U11" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>121.8692704368163</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>87.78115511141016</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>102.5059940158879</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>134.4291155854459</v>
+        <v>70.43669735679175</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.65670172208908</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>91.20065731177078</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176239</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.979314666920857</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>208.1860086605934</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>45.55681957368</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.917454002165</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>81.45902175588569</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>222.4883416251229</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>137.0114616263633</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>62.56142803888764</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.577887163712</v>
@@ -24858,7 +24858,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300456</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>136.5947337926461</v>
       </c>
     </row>
     <row r="32">
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>222.499706682461</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>2.076486341789092</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,25 +25125,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>55.35263051300575</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>88.57144222862047</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>219.9844192126098</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.6852556505997</v>
+        <v>81.33003974453479</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>102.5059940158878</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
         <v>115.1825854367171</v>
@@ -25599,25 +25599,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>204.125573863409</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="41">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>187.994239071985</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>49.19646844041392</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>113.6869258769811</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -25839,7 +25839,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>223.0676163851327</v>
       </c>
       <c r="D44" t="n">
-        <v>32.28731256679833</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26040,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>8.893130557884376</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>206.4740427578545</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608798</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666436.7477608798</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666436.7477608798</v>
+        <v>666436.7477608799</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666436.74776088</v>
+        <v>666436.7477608803</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666436.7477608802</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666436.7477608802</v>
+        <v>666436.74776088</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>666436.7477608799</v>
+        <v>666436.7477608802</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>666436.7477608802</v>
+        <v>666436.74776088</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>407205.9825811422</v>
+        <v>407205.9825811423</v>
       </c>
       <c r="C2" t="n">
         <v>407205.9825811423</v>
@@ -26322,31 +26322,31 @@
         <v>407205.9825811425</v>
       </c>
       <c r="E2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188673</v>
       </c>
       <c r="F2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="G2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="H2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="I2" t="n">
         <v>362060.8344188674</v>
       </c>
       <c r="J2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188674</v>
       </c>
       <c r="K2" t="n">
-        <v>362060.8344188675</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="L2" t="n">
-        <v>362060.8344188673</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="M2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188672</v>
       </c>
       <c r="N2" t="n">
         <v>362060.8344188674</v>
@@ -26355,7 +26355,7 @@
         <v>362060.8344188674</v>
       </c>
       <c r="P2" t="n">
-        <v>362060.8344188674</v>
+        <v>362060.8344188673</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163604.0061249449</v>
+        <v>166903.8857224131</v>
       </c>
       <c r="C4" t="n">
-        <v>163604.0061249449</v>
+        <v>166903.8857224131</v>
       </c>
       <c r="D4" t="n">
-        <v>70164.60289671768</v>
+        <v>74953.89566783968</v>
       </c>
       <c r="E4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="F4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="G4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="H4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="I4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="J4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="K4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="L4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="M4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="N4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="O4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
       <c r="P4" t="n">
-        <v>13679.18731591685</v>
+        <v>18711.68497292195</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3277.401484585716</v>
+        <v>-22.47811288235971</v>
       </c>
       <c r="C6" t="n">
-        <v>178232.9113776999</v>
+        <v>174933.0317802317</v>
       </c>
       <c r="D6" t="n">
-        <v>66212.83941915614</v>
+        <v>61423.5466480341</v>
       </c>
       <c r="E6" t="n">
-        <v>250547.4826771431</v>
+        <v>243709.1790936468</v>
       </c>
       <c r="F6" t="n">
-        <v>277516.4368580771</v>
+        <v>270678.1332745811</v>
       </c>
       <c r="G6" t="n">
-        <v>277516.4368580772</v>
+        <v>270678.1332745812</v>
       </c>
       <c r="H6" t="n">
-        <v>277516.4368580774</v>
+        <v>270678.1332745812</v>
       </c>
       <c r="I6" t="n">
-        <v>277516.4368580772</v>
+        <v>270678.1332745811</v>
       </c>
       <c r="J6" t="n">
-        <v>140921.6360521824</v>
+        <v>134083.3324686861</v>
       </c>
       <c r="K6" t="n">
-        <v>277516.4368580773</v>
+        <v>270678.133274581</v>
       </c>
       <c r="L6" t="n">
-        <v>137517.1259933244</v>
+        <v>130678.8224098282</v>
       </c>
       <c r="M6" t="n">
-        <v>255007.1720840298</v>
+        <v>248168.8685005335</v>
       </c>
       <c r="N6" t="n">
-        <v>277516.4368580772</v>
+        <v>270678.1332745812</v>
       </c>
       <c r="O6" t="n">
-        <v>277516.4368580772</v>
+        <v>270678.1332745811</v>
       </c>
       <c r="P6" t="n">
-        <v>277516.4368580772</v>
+        <v>270678.1332745811</v>
       </c>
     </row>
   </sheetData>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>152.1234863376399</v>
       </c>
       <c r="D2" t="n">
-        <v>54.52345692773787</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>104.6727392055614</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>1.562004291913468</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>50.02264605678158</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>68.60032708675476</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27782,7 +27782,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.61978614952088</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>179.743961777857</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>88.57966219382706</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>12.47044817368439</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>135.5987266329975</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>460.0037840019794</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>10.70163254908653</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>474.8949538093261</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>441.8756042977813</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329976</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>500.9700927793173</v>
+      </c>
+      <c r="M6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>474.8949538093264</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35184,7 +35184,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>727.5448328226893</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
         <v>650.1321781990958</v>
@@ -35193,10 +35193,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>7.722235904454253</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194744</v>
       </c>
       <c r="N9" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>333.1858818629447</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35661,13 +35661,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P14" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35734,7 +35734,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>788.7133462788644</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>151.2227878040968</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>151.2227878040966</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>473.6101143363516</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36445,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>120.9475160573611</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>504.6010349596355</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>542.304428641741</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K41" t="n">
         <v>543.5954556656965</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>422.5377309976959</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O42" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
